--- a/Template/Example/Валюты.xlsx
+++ b/Template/Example/Валюты.xlsx
@@ -1,71 +1,112 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <x:workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agaf73\source\repos\rx-util-importdata-net-core\Template\Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C248201-515F-4CC6-BD6B-E22ED46202AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Валюты" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Валюты!$A$1:$F$1</definedName>
-  </definedNames>
-  <calcPr calcId="152511"/>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Валюты" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Валюты!$A$1:$F$1</x:definedName>
+  </x:definedNames>
+  <x:calcPr calcId="152511"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Наименование</t>
-  </si>
-  <si>
-    <t>Сокр. Наименование</t>
-  </si>
-  <si>
-    <t>Дробная часть</t>
-  </si>
-  <si>
-    <t>Буквенный код</t>
-  </si>
-  <si>
-    <t>Цифровой код</t>
-  </si>
-  <si>
-    <t>Состояние</t>
-  </si>
-  <si>
-    <t>Австралийский доллар</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <t>036</t>
-  </si>
-  <si>
-    <t>Закрытая</t>
-  </si>
-  <si>
-    <t>цент</t>
-  </si>
-  <si>
-    <t>доллар</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+  <x:si>
+    <x:t>Наименование</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сокр. Наименование</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дробная часть</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Буквенный код</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Цифровой код</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Состояние</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Австралийский доллар</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AUD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>036</x:t>
+  </x:si>
+  <x:si>
+    <x:t>цент</x:t>
+  </x:si>
+  <x:si>
+    <x:t>доллар</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Итог</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дата</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подробности</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Active</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Загружен</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>Closed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Тенге</x:t>
+  </x:si>
+  <x:si>
+    <x:t>тенге</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KZT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>398</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не загружен</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не заполнено поле "Дробная часть".</x:t>
+  </x:si>
+  <x:si>
+    <x:t>тиын</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +135,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -109,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -132,11 +179,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -147,6 +209,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -426,65 +489,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{445087E0-42CB-4EDC-9CFF-EE0AEF89FDC8}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:dimension ref="A1:I3"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="E8" sqref="E8"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <x:col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="22.85546875" style="5" customWidth="1"/>
+    <x:col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <x:col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <x:col min="9" max="9" width="9.140625" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:9" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <x:c r="A1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H1" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I1" s="6" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <x:c r="A2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D2" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E2" s="5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="I2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <x:c r="A3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D3" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E3" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="I3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:autoFilter ref="A1:F1"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</x:worksheet>
 </file>
--- a/Template/Example/Валюты.xlsx
+++ b/Template/Example/Валюты.xlsx
@@ -100,6 +100,9 @@
   </x:si>
   <x:si>
     <x:t>тиын</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.08.2024</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -559,7 +562,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H2" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I2" t="s">
         <x:v>17</x:v>
@@ -588,7 +591,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H3" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I3" t="s">
         <x:v>17</x:v>
